--- a/Input file/Costing examples with new condition.xlsx
+++ b/Input file/Costing examples with new condition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\PAYROLL\Input file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183C686C-055E-4618-B9A6-914B961C5018}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650E4C9E-D20A-47EB-BC80-C02910C7E20B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="2895" windowWidth="21945" windowHeight="12705" xr2:uid="{D14F21A2-BB44-4E9E-9558-2ECC9BC9DBF5}"/>
+    <workbookView xWindow="6075" yWindow="2685" windowWidth="20670" windowHeight="12705" xr2:uid="{D14F21A2-BB44-4E9E-9558-2ECC9BC9DBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
@@ -8292,8 +8292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FCB311-9E0F-4B1A-BC96-E1EF0D019371}">
   <dimension ref="A1:I2504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input file/Costing examples with new condition.xlsx
+++ b/Input file/Costing examples with new condition.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\PAYROLL\Input file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650E4C9E-D20A-47EB-BC80-C02910C7E20B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F2DC97-1AF1-4714-9493-F3AC97075427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="2685" windowWidth="20670" windowHeight="12705" xr2:uid="{D14F21A2-BB44-4E9E-9558-2ECC9BC9DBF5}"/>
+    <workbookView xWindow="6075" yWindow="2685" windowWidth="20670" windowHeight="12705" activeTab="1" xr2:uid="{D14F21A2-BB44-4E9E-9558-2ECC9BC9DBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
-    <sheet name="Holiday" sheetId="2" r:id="rId2"/>
+    <sheet name="Check" sheetId="3" r:id="rId2"/>
+    <sheet name="Holiday" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12531" uniqueCount="2636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12670" uniqueCount="2640">
   <si>
     <t>objecttimeid</t>
   </si>
@@ -7934,6 +7935,18 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>Part time</t>
+  </si>
+  <si>
+    <t>Quynh</t>
+  </si>
+  <si>
+    <t>Full time</t>
+  </si>
+  <si>
+    <t>C2688E5F-5938-44AE-9483-93B9BEC1B11C</t>
   </si>
 </sst>
 </file>
@@ -8292,8 +8305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FCB311-9E0F-4B1A-BC96-E1EF0D019371}">
   <dimension ref="A1:I2504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="B994" workbookViewId="0">
+      <selection activeCell="F1015" sqref="F1015"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8357,7 +8370,7 @@
         <v>2620</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>2636</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -80928,11 +80941,818 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3235BC8-CFE4-4DB0-8779-6D98E5FE1CE6}">
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44277</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44279.166666666664</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44279.5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2636</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44277</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44279.541666666664</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44279.625</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2636</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44277</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44280.333333333336</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44280.5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44277</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44283</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44280.541666666664</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44280.625</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44291.25</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44291.395833333336</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44291.416666666664</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44291.6875</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44292.1875</v>
+      </c>
+      <c r="F8" s="2">
+        <v>44292.395833333336</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44292.416666666664</v>
+      </c>
+      <c r="F9" s="2">
+        <v>44292.625</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44293.1875</v>
+      </c>
+      <c r="F10" s="2">
+        <v>44293.395833333336</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44293.416666666664</v>
+      </c>
+      <c r="F11" s="2">
+        <v>44293.625</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44294.1875</v>
+      </c>
+      <c r="F12" s="2">
+        <v>44294.395833333336</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2636</v>
+      </c>
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44294.416666666664</v>
+      </c>
+      <c r="F13" s="2">
+        <v>44294.625</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2636</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44295.1875</v>
+      </c>
+      <c r="F14" s="2">
+        <v>44295.395833333336</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44295.416666666664</v>
+      </c>
+      <c r="F15" s="2">
+        <v>44295.677083333336</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44296.1875</v>
+      </c>
+      <c r="F16" s="2">
+        <v>44296.395833333336</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44296.416666666664</v>
+      </c>
+      <c r="F17" s="2">
+        <v>44296.625</v>
+      </c>
+      <c r="G17" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44297.1875</v>
+      </c>
+      <c r="F18" s="2">
+        <v>44297.395833333336</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44297.416666666664</v>
+      </c>
+      <c r="F19" s="2">
+        <v>44297.625</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44305</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44311</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44305.1875</v>
+      </c>
+      <c r="F20" s="2">
+        <v>44305.291666666664</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44294.604166666664</v>
+      </c>
+      <c r="F21" s="2">
+        <v>44294.75</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44295.333333333336</v>
+      </c>
+      <c r="F22" s="2">
+        <v>44295.336805555555</v>
+      </c>
+      <c r="G22" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44296.333333333336</v>
+      </c>
+      <c r="F23" s="2">
+        <v>44296.336805555555</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44291</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44297</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44297.333333333336</v>
+      </c>
+      <c r="F24" s="2">
+        <v>44297.336805555555</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44305</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44311</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44305.916666666664</v>
+      </c>
+      <c r="F25" s="2">
+        <v>44306.125</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H25" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>279</v>
+      </c>
+      <c r="B26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44305</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44311</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44310.916666666664</v>
+      </c>
+      <c r="F26" s="2">
+        <v>44311.5</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2639</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44305</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44311</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44311.416666666664</v>
+      </c>
+      <c r="F27" s="2">
+        <v>44311.5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BFE9FB-444A-4B1C-AD97-0BE7FB6B8434}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input file/Costing examples with new condition.xlsx
+++ b/Input file/Costing examples with new condition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\PAYROLL\Input file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F2DC97-1AF1-4714-9493-F3AC97075427}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994D4E1D-D830-408B-84DD-004838697C0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="2685" windowWidth="20670" windowHeight="12705" activeTab="1" xr2:uid="{D14F21A2-BB44-4E9E-9558-2ECC9BC9DBF5}"/>
+    <workbookView xWindow="4245" yWindow="2715" windowWidth="20670" windowHeight="12705" activeTab="2" xr2:uid="{D14F21A2-BB44-4E9E-9558-2ECC9BC9DBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12670" uniqueCount="2640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12695" uniqueCount="2640">
   <si>
     <t>objecttimeid</t>
   </si>
@@ -8305,8 +8305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FCB311-9E0F-4B1A-BC96-E1EF0D019371}">
   <dimension ref="A1:I2504"/>
   <sheetViews>
-    <sheetView topLeftCell="B994" workbookViewId="0">
-      <selection activeCell="F1015" sqref="F1015"/>
+    <sheetView topLeftCell="B1048" workbookViewId="0">
+      <selection activeCell="B1069" activeCellId="4" sqref="A1065:XFD1065 A1066:XFD1066 A1067:XFD1067 A1068:XFD1068 A1069:XFD1069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80942,10 +80942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3235BC8-CFE4-4DB0-8779-6D98E5FE1CE6}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81742,6 +81742,151 @@
         <v>11</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44312</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44318</v>
+      </c>
+      <c r="E28" s="2">
+        <v>44314.625</v>
+      </c>
+      <c r="F28" s="2">
+        <v>44314.875</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2627</v>
+      </c>
+      <c r="H28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44312</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44318</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44314.9375</v>
+      </c>
+      <c r="F29" s="2">
+        <v>44315.1875</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2627</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44312</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44318</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44316.833333333336</v>
+      </c>
+      <c r="F30" s="2">
+        <v>44317.041666666664</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2627</v>
+      </c>
+      <c r="H30" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B31" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44312</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44318</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44317.0625</v>
+      </c>
+      <c r="F31" s="2">
+        <v>44317.145833333336</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2627</v>
+      </c>
+      <c r="H31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44319</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44325</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44319.291666666664</v>
+      </c>
+      <c r="F32" s="2">
+        <v>44319.5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2627</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -81749,10 +81894,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BFE9FB-444A-4B1C-AD97-0BE7FB6B8434}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81815,6 +81960,14 @@
         <v>2635</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input file/Costing examples with new condition.xlsx
+++ b/Input file/Costing examples with new condition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\PAYROLL\Input file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994D4E1D-D830-408B-84DD-004838697C0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B05097-E87D-4993-9DD9-CEF2663D6846}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="2715" windowWidth="20670" windowHeight="12705" activeTab="2" xr2:uid="{D14F21A2-BB44-4E9E-9558-2ECC9BC9DBF5}"/>
+    <workbookView xWindow="4080" yWindow="2550" windowWidth="24000" windowHeight="12705" activeTab="1" xr2:uid="{D14F21A2-BB44-4E9E-9558-2ECC9BC9DBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12695" uniqueCount="2640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12700" uniqueCount="2641">
   <si>
     <t>objecttimeid</t>
   </si>
@@ -7947,6 +7947,9 @@
   </si>
   <si>
     <t>C2688E5F-5938-44AE-9483-93B9BEC1B11C</t>
+  </si>
+  <si>
+    <t>C2688E5F-5938-44AE-9483-5478BEC1B11C</t>
   </si>
 </sst>
 </file>
@@ -7965,12 +7968,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -7985,10 +7994,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -80942,15 +80953,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3235BC8-CFE4-4DB0-8779-6D98E5FE1CE6}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="78.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" customWidth="1"/>
@@ -81713,67 +81725,67 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>2639</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>2637</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="4">
         <v>44305</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="4">
         <v>44311</v>
       </c>
-      <c r="E27" s="2">
-        <v>44311.416666666664</v>
-      </c>
-      <c r="F27" s="2">
-        <v>44311.5</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="E27" s="4">
+        <v>44311.916666666664</v>
+      </c>
+      <c r="F27" s="4">
+        <v>44311.958333333336</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>2620</v>
       </c>
-      <c r="H27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>2640</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>2637</v>
       </c>
-      <c r="C28" s="2">
-        <v>44312</v>
-      </c>
-      <c r="D28" s="2">
-        <v>44318</v>
-      </c>
-      <c r="E28" s="2">
-        <v>44314.625</v>
-      </c>
-      <c r="F28" s="2">
-        <v>44314.875</v>
-      </c>
-      <c r="G28" t="s">
-        <v>2627</v>
-      </c>
-      <c r="H28" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" t="s">
-        <v>11</v>
+      <c r="C28" s="4">
+        <v>44305</v>
+      </c>
+      <c r="D28" s="4">
+        <v>44311</v>
+      </c>
+      <c r="E28" s="4">
+        <v>44312.041666666664</v>
+      </c>
+      <c r="F28" s="4">
+        <v>44312.104166666664</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>2639</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B29" t="s">
         <v>2637</v>
@@ -81785,10 +81797,10 @@
         <v>44318</v>
       </c>
       <c r="E29" s="2">
-        <v>44314.9375</v>
+        <v>44314.625</v>
       </c>
       <c r="F29" s="2">
-        <v>44315.1875</v>
+        <v>44314.875</v>
       </c>
       <c r="G29" t="s">
         <v>2627</v>
@@ -81797,15 +81809,15 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>1130</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B30" t="s">
-        <v>267</v>
+        <v>2637</v>
       </c>
       <c r="C30" s="2">
         <v>44312</v>
@@ -81814,10 +81826,10 @@
         <v>44318</v>
       </c>
       <c r="E30" s="2">
-        <v>44316.833333333336</v>
+        <v>44314.9375</v>
       </c>
       <c r="F30" s="2">
-        <v>44317.041666666664</v>
+        <v>44315.1875</v>
       </c>
       <c r="G30" t="s">
         <v>2627</v>
@@ -81826,12 +81838,12 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>11</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B31" t="s">
         <v>267</v>
@@ -81843,10 +81855,10 @@
         <v>44318</v>
       </c>
       <c r="E31" s="2">
-        <v>44317.0625</v>
+        <v>44316.833333333336</v>
       </c>
       <c r="F31" s="2">
-        <v>44317.145833333336</v>
+        <v>44317.041666666664</v>
       </c>
       <c r="G31" t="s">
         <v>2627</v>
@@ -81855,27 +81867,27 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>1132</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B32" t="s">
-        <v>2637</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2">
-        <v>44319</v>
+        <v>44312</v>
       </c>
       <c r="D32" s="2">
-        <v>44325</v>
+        <v>44318</v>
       </c>
       <c r="E32" s="2">
-        <v>44319.291666666664</v>
+        <v>44317.0625</v>
       </c>
       <c r="F32" s="2">
-        <v>44319.5</v>
+        <v>44317.145833333336</v>
       </c>
       <c r="G32" t="s">
         <v>2627</v>
@@ -81884,6 +81896,35 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2637</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44319</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44325</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44319.291666666664</v>
+      </c>
+      <c r="F33" s="2">
+        <v>44319.5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2627</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
         <v>11</v>
       </c>
     </row>
@@ -81896,7 +81937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BFE9FB-444A-4B1C-AD97-0BE7FB6B8434}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Input file/Costing examples with new condition.xlsx
+++ b/Input file/Costing examples with new condition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\PAYROLL\Input file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B05097-E87D-4993-9DD9-CEF2663D6846}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5832514F-5F80-44B6-8BE6-A0A661F6C63A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="2550" windowWidth="24000" windowHeight="12705" activeTab="1" xr2:uid="{D14F21A2-BB44-4E9E-9558-2ECC9BC9DBF5}"/>
+    <workbookView xWindow="-2640" yWindow="2295" windowWidth="29010" windowHeight="12705" xr2:uid="{D14F21A2-BB44-4E9E-9558-2ECC9BC9DBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
@@ -7977,7 +7977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8316,8 +8316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FCB311-9E0F-4B1A-BC96-E1EF0D019371}">
   <dimension ref="A1:I2504"/>
   <sheetViews>
-    <sheetView topLeftCell="B1048" workbookViewId="0">
-      <selection activeCell="B1069" activeCellId="4" sqref="A1065:XFD1065 A1066:XFD1066 A1067:XFD1067 A1068:XFD1068 A1069:XFD1069"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8381,7 +8381,7 @@
         <v>2620</v>
       </c>
       <c r="H2" t="s">
-        <v>2636</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -80955,8 +80955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3235BC8-CFE4-4DB0-8779-6D98E5FE1CE6}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:M28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81188,7 +81188,7 @@
         <v>44297</v>
       </c>
       <c r="E8" s="2">
-        <v>44292.1875</v>
+        <v>44292.145833333336</v>
       </c>
       <c r="F8" s="2">
         <v>44292.395833333336</v>
@@ -81220,7 +81220,7 @@
         <v>44292.416666666664</v>
       </c>
       <c r="F9" s="2">
-        <v>44292.625</v>
+        <v>44292.791666666664</v>
       </c>
       <c r="G9" t="s">
         <v>2620</v>
@@ -81246,7 +81246,7 @@
         <v>44297</v>
       </c>
       <c r="E10" s="2">
-        <v>44293.1875</v>
+        <v>44293.145833333336</v>
       </c>
       <c r="F10" s="2">
         <v>44293.395833333336</v>
@@ -81278,7 +81278,7 @@
         <v>44293.416666666664</v>
       </c>
       <c r="F11" s="2">
-        <v>44293.625</v>
+        <v>44293.75</v>
       </c>
       <c r="G11" t="s">
         <v>2620</v>
@@ -81336,7 +81336,7 @@
         <v>44294.416666666664</v>
       </c>
       <c r="F13" s="2">
-        <v>44294.625</v>
+        <v>44294.833333333336</v>
       </c>
       <c r="G13" t="s">
         <v>2620</v>

--- a/Input file/Costing examples with new condition.xlsx
+++ b/Input file/Costing examples with new condition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Quynh\PAYROLL\Input file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5832514F-5F80-44B6-8BE6-A0A661F6C63A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5405D0-E01E-41C5-9428-BE6989ED9E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2640" yWindow="2295" windowWidth="29010" windowHeight="12705" xr2:uid="{D14F21A2-BB44-4E9E-9558-2ECC9BC9DBF5}"/>
+    <workbookView xWindow="3525" yWindow="1755" windowWidth="29100" windowHeight="12705" activeTab="2" xr2:uid="{D14F21A2-BB44-4E9E-9558-2ECC9BC9DBF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Time" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12700" uniqueCount="2641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12695" uniqueCount="2636">
   <si>
     <t>objecttimeid</t>
   </si>
@@ -7920,21 +7920,6 @@
   </si>
   <si>
     <t>Month</t>
-  </si>
-  <si>
-    <t>Holiday</t>
-  </si>
-  <si>
-    <t>New Year's Day</t>
-  </si>
-  <si>
-    <t>Australia Day</t>
-  </si>
-  <si>
-    <t>Christmas Day</t>
-  </si>
-  <si>
-    <t>abc</t>
   </si>
   <si>
     <t>Part time</t>
@@ -8316,7 +8301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3FCB311-9E0F-4B1A-BC96-E1EF0D019371}">
   <dimension ref="A1:I2504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -81023,7 +81008,7 @@
         <v>2620</v>
       </c>
       <c r="H2" t="s">
-        <v>2636</v>
+        <v>2631</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
@@ -81052,7 +81037,7 @@
         <v>2620</v>
       </c>
       <c r="H3" t="s">
-        <v>2636</v>
+        <v>2631</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -81063,7 +81048,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
       <c r="C4" s="2">
         <v>44277</v>
@@ -81092,7 +81077,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
       <c r="C5" s="2">
         <v>44277</v>
@@ -81237,7 +81222,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
       <c r="C10" s="2">
         <v>44291</v>
@@ -81266,7 +81251,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
       <c r="C11" s="2">
         <v>44291</v>
@@ -81313,7 +81298,7 @@
         <v>2620</v>
       </c>
       <c r="H12" t="s">
-        <v>2636</v>
+        <v>2631</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -81342,7 +81327,7 @@
         <v>2620</v>
       </c>
       <c r="H13" t="s">
-        <v>2636</v>
+        <v>2631</v>
       </c>
       <c r="I13" t="s">
         <v>21</v>
@@ -81603,7 +81588,7 @@
         <v>2620</v>
       </c>
       <c r="H22" t="s">
-        <v>2638</v>
+        <v>2633</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -81632,7 +81617,7 @@
         <v>2620</v>
       </c>
       <c r="H23" t="s">
-        <v>2638</v>
+        <v>2633</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -81643,7 +81628,7 @@
         <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
       <c r="C24" s="2">
         <v>44291</v>
@@ -81727,10 +81712,10 @@
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>2639</v>
+        <v>2634</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
       <c r="C27" s="4">
         <v>44305</v>
@@ -81756,10 +81741,10 @@
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>2640</v>
+        <v>2635</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
       <c r="C28" s="4">
         <v>44305</v>
@@ -81780,7 +81765,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>2639</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -81788,7 +81773,7 @@
         <v>1130</v>
       </c>
       <c r="B29" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
       <c r="C29" s="2">
         <v>44312</v>
@@ -81817,7 +81802,7 @@
         <v>1131</v>
       </c>
       <c r="B30" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
       <c r="C30" s="2">
         <v>44312</v>
@@ -81904,7 +81889,7 @@
         <v>1134</v>
       </c>
       <c r="B33" t="s">
-        <v>2637</v>
+        <v>2632</v>
       </c>
       <c r="C33" s="2">
         <v>44319</v>
@@ -81935,10 +81920,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BFE9FB-444A-4B1C-AD97-0BE7FB6B8434}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81946,62 +81931,47 @@
     <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2629</v>
       </c>
       <c r="B1" t="s">
         <v>2630</v>
       </c>
-      <c r="C1" t="s">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2632</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>26</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>25</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>25</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>30</v>
       </c>
